--- a/class_diagram/after/service/manager/面談予約システム_クラス図 (service.manager).xlsx
+++ b/class_diagram/after/service/manager/面談予約システム_クラス図 (service.manager).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29622"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\service\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="182" documentId="13_ncr:1_{4BA62345-46E2-4649-8B41-69BE094F1870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F34A52C3-2FB3-40E7-B40A-6139E17B4043}"/>
+  <xr:revisionPtr revIDLastSave="194" documentId="13_ncr:1_{4BA62345-46E2-4649-8B41-69BE094F1870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{878DE811-F155-46AC-ACD5-3187A845B226}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignupService" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="InterviewersGetService" sheetId="9" r:id="rId4"/>
     <sheet name="InterviewerSetService" sheetId="5" r:id="rId5"/>
     <sheet name="InterviewerDeleteService" sheetId="3" r:id="rId6"/>
+    <sheet name="ManagerGetService" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
   <si>
     <t>　--r 返り値のデータ型</t>
     <phoneticPr fontId="2"/>
@@ -56,6 +57,18 @@
   </si>
   <si>
     <t xml:space="preserve"> アクター別パッケージ名</t>
+  </si>
+  <si>
+    <t>　--r 返り値のデータ型</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> フィールド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> メソッド</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -3918,6 +3931,568 @@
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>repository : InterviewersRepository</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97DCDA84-A5A2-4DEF-9DC5-4FF24EE4B5B2}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{40F91B08-F9CE-4956-BBE5-BB93A2ADB5C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6419850" y="2028825"/>
+          <a:ext cx="5905500" cy="5600700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ManagerGetService</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF2639E-3980-4018-A5BC-10A8748A7904}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{815187C4-59AD-4445-9329-DA3C78513C04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7324725" y="4943475"/>
+          <a:ext cx="3571875" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getManager ( id : Integer )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r Manager</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDECA6B5-A81C-4642-A783-D9FA5947E936}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{ACF2639E-3980-4018-A5BC-10A8748A7904}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7305675" y="3895725"/>
+          <a:ext cx="3571875" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>repository : ManagersRepository</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4246,8 +4821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117C2340-5DDE-46FC-AC51-D1EAD895E92E}">
   <dimension ref="F20:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H8" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="H8" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4564,4 +5139,61 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44805EB2-E6FE-4A92-B013-45D936C39F2B}">
+  <dimension ref="F20:O105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="16" max="16" width="9.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="20" spans="7:8">
+      <c r="G20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="34" spans="8:9">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="12:15">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="105" spans="6:7" ht="24">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/class_diagram/after/service/manager/面談予約システム_クラス図 (service.manager).xlsx
+++ b/class_diagram/after/service/manager/面談予約システム_クラス図 (service.manager).xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\service\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="194" documentId="13_ncr:1_{4BA62345-46E2-4649-8B41-69BE094F1870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{878DE811-F155-46AC-ACD5-3187A845B226}"/>
+  <xr:revisionPtr revIDLastSave="196" documentId="13_ncr:1_{4BA62345-46E2-4649-8B41-69BE094F1870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F715DE8B-6E58-4D23-9A43-9A49D39F1FDF}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SignupService" sheetId="2" r:id="rId1"/>
+    <sheet name="InterviewerSignupService" sheetId="2" r:id="rId1"/>
     <sheet name="LoginService" sheetId="1" r:id="rId2"/>
     <sheet name="InterviewerGetService" sheetId="4" r:id="rId3"/>
     <sheet name="InterviewersGetService" sheetId="9" r:id="rId4"/>
@@ -254,7 +254,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>SignupService</a:t>
+            <a:t>InterviewerSignupService</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4821,8 +4821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117C2340-5DDE-46FC-AC51-D1EAD895E92E}">
   <dimension ref="F20:I105"/>
   <sheetViews>
-    <sheetView topLeftCell="H8" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView tabSelected="1" topLeftCell="H8" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5145,7 +5145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44805EB2-E6FE-4A92-B013-45D936C39F2B}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
